--- a/dadosIsolamento.xlsx
+++ b/dadosIsolamento.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D255"/>
+  <dimension ref="A1:D259"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4960,6 +4960,78 @@
         </is>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>11/22/2020</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="C256" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="D256" t="inlineStr">
+        <is>
+          <t>Domingo</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>11/23/2020</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C257" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D257" t="inlineStr">
+        <is>
+          <t>Segunda-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>11/24/2020</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C258" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="D258" t="inlineStr">
+        <is>
+          <t>Terça-feira</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>11/25/2020</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="C259" t="n">
+        <v>0.38</v>
+      </c>
+      <c r="D259" t="inlineStr">
+        <is>
+          <t>Quarta-feira</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
